--- a/include/farfrr/farfrr.xlsx
+++ b/include/farfrr/farfrr.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21285" windowHeight="12540"/>
+    <workbookView windowWidth="23625" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="farfrr" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>index</t>
   </si>
@@ -40,7 +40,16 @@
     <t>注意点：</t>
   </si>
   <si>
-    <t>需要选择数据， FAR或者FRR为0的不取， 然后调整刻度的最大值最小值，让曲线能完整的显示出来</t>
+    <t>1. 需要选择数据， FAR或者FRR为0的不取， 然后调整刻度的最大值最小值，让曲线能完整的显示出来</t>
+  </si>
+  <si>
+    <t>2. FAR需要调整到10-E-7, FRR建议调整到0.01或者0.1, 看库的质量, 质量好的可以达到0.01, 差的0.1</t>
+  </si>
+  <si>
+    <t>3. 选择FARFRR数据的时候, 可以调整数据里面的数据, 可以选择到对于的数据, 例如 =farfrr!$F$16:$F$63</t>
+  </si>
+  <si>
+    <t>可以调整16和63, 就是上下的位置, 左右都需要调整</t>
   </si>
 </sst>
 </file>
@@ -814,162 +823,306 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>farfrr!$F$16:$F$39</c:f>
+              <c:f>farfrr!$F$16:$F$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
-                  <c:v>0.796213899619967</c:v>
+                  <c:v>0.840545600789936</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62515455494075</c:v>
+                  <c:v>0.692004585661969</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.438923593774205</c:v>
+                  <c:v>0.51582728693486</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.276700441957704</c:v>
+                  <c:v>0.347611754544871</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.158333125127236</c:v>
+                  <c:v>0.213170531805649</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0833428622082037</c:v>
+                  <c:v>0.120144892872484</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0410733645305867</c:v>
+                  <c:v>0.0632729299159859</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0190003157804566</c:v>
+                  <c:v>0.0311607657933864</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.00838044458763027</c:v>
+                  <c:v>0.0145528462182388</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00354858818637443</c:v>
+                  <c:v>0.00651351930184395</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0014582687948841</c:v>
+                  <c:v>0.00280937022035689</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.000584756708563682</c:v>
+                  <c:v>0.00119121573841717</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.000232032365151766</c:v>
+                  <c:v>0.000488462453102578</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.00187585713626e-5</c:v>
+                  <c:v>0.000198866992703911</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.46206114199115e-5</c:v>
+                  <c:v>7.94487122516241e-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.35479054589941e-5</c:v>
+                  <c:v>3.09948062611274e-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.10902940803031e-6</c:v>
+                  <c:v>1.20153916676839e-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.95193216201371e-6</c:v>
+                  <c:v>5.05136874192425e-6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.68530781559405e-7</c:v>
+                  <c:v>2.35403591856664e-6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.74766757300885e-7</c:v>
+                  <c:v>8.33721054492351e-7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.79366659686322e-8</c:v>
+                  <c:v>2.45212074850692e-7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.80864812100236e-8</c:v>
+                  <c:v>1.96169659880553e-7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.63227776614387e-8</c:v>
+                  <c:v>9.80848299402766e-8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.72046294357312e-9</c:v>
+                  <c:v>9.80848299402766e-8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.90424149701383e-8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.90424149701383e-8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.90424149701383e-8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.90424149701383e-8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.90424149701383e-8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.90424149701383e-8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.90424149701383e-8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.90424149701383e-8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.90424149701383e-8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.90424149701383e-8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.90424149701383e-8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.90424149701383e-8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.90424149701383e-8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.90424149701383e-8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.90424149701383e-8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.90424149701383e-8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.90424149701383e-8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.90424149701383e-8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.90424149701383e-8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.90424149701383e-8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.90424149701383e-8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.90424149701383e-8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.90424149701383e-8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.90424149701383e-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>farfrr!$G$16:$G$39</c:f>
+              <c:f>farfrr!$G$16:$G$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
-                  <c:v>0.000295246530853262</c:v>
+                  <c:v>0.000314762354422411</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000369058163566578</c:v>
+                  <c:v>0.000314762354422411</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000369058163566578</c:v>
+                  <c:v>0.000314762354422411</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000590493061706525</c:v>
+                  <c:v>0.000314762354422411</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000664304694419841</c:v>
+                  <c:v>0.000944287063267233</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000664304694419841</c:v>
+                  <c:v>0.000944287063267233</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.000885739592559787</c:v>
+                  <c:v>0.000944287063267233</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00125479775612637</c:v>
+                  <c:v>0.000944287063267233</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.00125479775612637</c:v>
+                  <c:v>0.000944287063267233</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00155004428697963</c:v>
+                  <c:v>0.00125904941768964</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00177147918511957</c:v>
+                  <c:v>0.00157381177211206</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00258340714496605</c:v>
+                  <c:v>0.00188857412653447</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00346914673752583</c:v>
+                  <c:v>0.00251809883537929</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00405963979923236</c:v>
+                  <c:v>0.00314762354422411</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00442869796279894</c:v>
+                  <c:v>0.00346238589864652</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00501919102450546</c:v>
+                  <c:v>0.00377714825306893</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00553587245349867</c:v>
+                  <c:v>0.00409191060749134</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.00597874224977857</c:v>
+                  <c:v>0.00472143531633617</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00671685857691172</c:v>
+                  <c:v>0.00472143531633617</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0070859167404783</c:v>
+                  <c:v>0.00503619767075858</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.00797165633303809</c:v>
+                  <c:v>0.0056657223796034</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.00937407735459108</c:v>
+                  <c:v>0.00598048473402581</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0104074402125775</c:v>
+                  <c:v>0.00692477179729304</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0112931798051373</c:v>
+                  <c:v>0.00723953415171546</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.00818382121498269</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.00912810827824992</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0110166824047844</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0125904941768964</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0135347812401637</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0169971671388102</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0195152659741895</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.021403840100724</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0226628895184136</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0258105130626377</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0276990871891722</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0311614730878187</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0321057601510859</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0368271954674221</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0393452943028014</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0434372049102927</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0481586402266289</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0538243626062323</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0579162732137236</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0645262826565943</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0720805791627321</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0777463015423355</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0856153604028958</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0947434686811457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -992,7 +1145,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="1e-8"/>
+          <c:min val="1e-7"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1091,7 +1244,7 @@
         <c:axId val="62023095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.012"/>
+          <c:max val="0.01"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2086,7 +2239,7 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2130,7 +2283,7 @@
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D33" si="0">D3+C2</f>
-        <v>735168992</v>
+        <v>122343078</v>
       </c>
       <c r="E2">
         <f>B2</f>
@@ -2157,7 +2310,7 @@
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>735168992</v>
+        <v>122343078</v>
       </c>
       <c r="E3">
         <f>E2+B3</f>
@@ -2184,7 +2337,7 @@
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>735168992</v>
+        <v>122343078</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E35" si="3">E3+B4</f>
@@ -2211,7 +2364,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>735168992</v>
+        <v>122343078</v>
       </c>
       <c r="E5">
         <f t="shared" si="3"/>
@@ -2238,7 +2391,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>735168992</v>
+        <v>122343078</v>
       </c>
       <c r="E6">
         <f t="shared" si="3"/>
@@ -2261,11 +2414,11 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>735168992</v>
+        <v>122343078</v>
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
@@ -2288,11 +2441,11 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>209</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>735168988</v>
+        <v>122343078</v>
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
@@ -2300,7 +2453,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>0.999999994559074</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
@@ -2315,11 +2468,11 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3299</v>
+        <v>423</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>735168779</v>
+        <v>122343048</v>
       </c>
       <c r="E9">
         <f t="shared" si="3"/>
@@ -2327,7 +2480,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>0.999999710270697</v>
+        <v>0.999999754787925</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
@@ -2342,11 +2495,11 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>46743</v>
+        <v>5478</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>735165480</v>
+        <v>122342625</v>
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
@@ -2354,7 +2507,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>0.999995222867071</v>
+        <v>0.99999629729767</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
@@ -2369,11 +2522,11 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>474342</v>
+        <v>56316</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>735118737</v>
+        <v>122337147</v>
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
@@ -2381,7 +2534,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>0.999931641567385</v>
+        <v>0.999951521572802</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
@@ -2396,11 +2549,11 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3286172</v>
+        <v>393060</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>734644395</v>
+        <v>122280831</v>
       </c>
       <c r="E12">
         <f t="shared" si="3"/>
@@ -2408,7 +2561,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>0.999286426650595</v>
+        <v>0.999491209465892</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
@@ -2423,11 +2576,11 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>14870793</v>
+        <v>1811535</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>731358223</v>
+        <v>121887771</v>
       </c>
       <c r="E13">
         <f t="shared" si="3"/>
@@ -2435,7 +2588,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>0.994816472074491</v>
+        <v>0.996278440861199</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
@@ -2450,11 +2603,11 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>43481952</v>
+        <v>5493174</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>716487430</v>
+        <v>120076236</v>
       </c>
       <c r="E14">
         <f t="shared" si="3"/>
@@ -2462,7 +2615,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>0.974588751425468</v>
+        <v>0.981471432327377</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
@@ -2477,11 +2630,11 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>87653708</v>
+        <v>11748126</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>673005478</v>
+        <v>114583062</v>
       </c>
       <c r="E15">
         <f t="shared" si="3"/>
@@ -2489,7 +2642,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>0.915443231860356</v>
+        <v>0.936571679192181</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
@@ -2501,26 +2654,26 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>125757526</v>
+        <v>18172965</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>585351770</v>
+        <v>102834936</v>
       </c>
       <c r="E16">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>0.796213899619967</v>
+        <v>0.840545600789936</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>0.000295246530853262</v>
+        <v>0.000314762354422411</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2528,26 +2681,26 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>136911228</v>
+        <v>21554073</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>459594244</v>
+        <v>84661971</v>
       </c>
       <c r="E17">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>0.62515455494075</v>
+        <v>0.692004585661969</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>0.000369058163566578</v>
+        <v>0.000314762354422411</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2558,23 +2711,23 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>119261431</v>
+        <v>20580006</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>322683016</v>
+        <v>63107898</v>
       </c>
       <c r="E18">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>0.438923593774205</v>
+        <v>0.51582728693486</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>0.000369058163566578</v>
+        <v>0.000314762354422411</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2582,26 +2735,26 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>87019981</v>
+        <v>16447953</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>203421585</v>
+        <v>42527892</v>
       </c>
       <c r="E19">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>0.276700441957704</v>
+        <v>0.347611754544871</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>0.000590493061706525</v>
+        <v>0.000314762354422411</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2609,14 +2762,14 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C20">
-        <v>55130516</v>
+        <v>11381043</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>116401604</v>
+        <v>26079939</v>
       </c>
       <c r="E20">
         <f t="shared" si="3"/>
@@ -2624,11 +2777,11 @@
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>0.158333125127236</v>
+        <v>0.213170531805649</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>0.000664304694419841</v>
+        <v>0.000944287063267233</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2639,11 +2792,11 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>31075224</v>
+        <v>6957891</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>61271088</v>
+        <v>14698896</v>
       </c>
       <c r="E21">
         <f t="shared" si="3"/>
@@ -2651,11 +2804,11 @@
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>0.0833428622082037</v>
+        <v>0.120144892872484</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>0.000664304694419841</v>
+        <v>0.000944287063267233</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2663,26 +2816,26 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>16227421</v>
+        <v>3928701</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>30195864</v>
+        <v>7741005</v>
       </c>
       <c r="E22">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>0.0410733645305867</v>
+        <v>0.0632729299159859</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>0.000885739592559787</v>
+        <v>0.000944287063267233</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2690,26 +2843,26 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>7807400</v>
+        <v>2031864</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>13968443</v>
+        <v>3812304</v>
       </c>
       <c r="E23">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>0.0190003157804566</v>
+        <v>0.0311607657933864</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>0.00125479775612637</v>
+        <v>0.000944287063267233</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2720,23 +2873,23 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3552231</v>
+        <v>983556</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>6161043</v>
+        <v>1780440</v>
       </c>
       <c r="E24">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>0.00838044458763027</v>
+        <v>0.0145528462182388</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>0.00125479775612637</v>
+        <v>0.000944287063267233</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2744,26 +2897,26 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>1536738</v>
+        <v>453177</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>2608812</v>
+        <v>796884</v>
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>0.00354858818637443</v>
+        <v>0.00651351930184395</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>0.00155004428697963</v>
+        <v>0.00125904941768964</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2774,23 +2927,23 @@
         <v>6</v>
       </c>
       <c r="C26">
-        <v>642179</v>
+        <v>197970</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>1072074</v>
+        <v>343707</v>
       </c>
       <c r="E26">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>0.0014582687948841</v>
+        <v>0.00280937022035689</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>0.00177147918511957</v>
+        <v>0.00157381177211206</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2798,26 +2951,26 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C27">
-        <v>259312</v>
+        <v>85977</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>429895</v>
+        <v>145737</v>
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>0.000584756708563682</v>
+        <v>0.00119121573841717</v>
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
-        <v>0.00258340714496605</v>
+        <v>0.00188857412653447</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2825,26 +2978,26 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>104404</v>
+        <v>35430</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>170583</v>
+        <v>59760</v>
       </c>
       <c r="E28">
         <f t="shared" si="3"/>
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>0.000232032365151766</v>
+        <v>0.000488462453102578</v>
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
-        <v>0.00346914673752583</v>
+        <v>0.00251809883537929</v>
       </c>
       <c r="I28" t="s">
         <v>7</v>
@@ -2853,85 +3006,94 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C29">
-        <v>40727</v>
+        <v>14610</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>66179</v>
+        <v>24330</v>
       </c>
       <c r="E29">
         <f t="shared" si="3"/>
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>9.00187585713626e-5</v>
+        <v>0.000198866992703911</v>
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
-        <v>0.00405963979923236</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.00314762354422411</v>
+      </c>
+      <c r="J29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C30">
-        <v>15492</v>
+        <v>5928</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>25452</v>
+        <v>9720</v>
       </c>
       <c r="E30">
         <f t="shared" si="3"/>
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>3.46206114199115e-5</v>
+        <v>7.94487122516241e-5</v>
       </c>
       <c r="G30">
         <f t="shared" si="2"/>
-        <v>0.00442869796279894</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.00346238589864652</v>
+      </c>
+      <c r="J30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C31">
-        <v>6204</v>
+        <v>2322</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>9960</v>
+        <v>3792</v>
       </c>
       <c r="E31">
         <f t="shared" si="3"/>
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>1.35479054589941e-5</v>
+        <v>3.09948062611274e-5</v>
       </c>
       <c r="G31">
         <f t="shared" si="2"/>
-        <v>0.00501919102450546</v>
+        <v>0.00377714825306893</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2939,26 +3101,26 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C32">
-        <v>2321</v>
+        <v>852</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>3756</v>
+        <v>1470</v>
       </c>
       <c r="E32">
         <f t="shared" si="3"/>
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>5.10902940803031e-6</v>
+        <v>1.20153916676839e-5</v>
       </c>
       <c r="G32">
         <f t="shared" si="2"/>
-        <v>0.00553587245349867</v>
+        <v>0.00409191060749134</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2969,23 +3131,23 @@
         <v>12</v>
       </c>
       <c r="C33">
-        <v>870</v>
+        <v>330</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>1435</v>
+        <v>618</v>
       </c>
       <c r="E33">
         <f t="shared" si="3"/>
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>1.95193216201371e-6</v>
+        <v>5.05136874192425e-6</v>
       </c>
       <c r="G33">
         <f t="shared" si="2"/>
-        <v>0.00597874224977857</v>
+        <v>0.00472143531633617</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2993,26 +3155,26 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>363</v>
+        <v>186</v>
       </c>
       <c r="D34">
         <f t="shared" ref="D34:D65" si="4">D35+C34</f>
-        <v>565</v>
+        <v>288</v>
       </c>
       <c r="E34">
         <f t="shared" si="3"/>
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>7.68530781559405e-7</v>
+        <v>2.35403591856664e-6</v>
       </c>
       <c r="G34">
         <f t="shared" si="2"/>
-        <v>0.00671685857691172</v>
+        <v>0.00472143531633617</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3020,26 +3182,26 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C35">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="D35">
         <f t="shared" si="4"/>
-        <v>202</v>
+        <v>102</v>
       </c>
       <c r="E35">
         <f t="shared" si="3"/>
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="F35">
         <f t="shared" ref="F35:F66" si="5">D35/SUM(C:C)</f>
-        <v>2.74766757300885e-7</v>
+        <v>8.33721054492351e-7</v>
       </c>
       <c r="G35">
         <f t="shared" ref="G35:G66" si="6">E35/SUM(B:B)</f>
-        <v>0.0070859167404783</v>
+        <v>0.00503619767075858</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3047,26 +3209,26 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C36">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D36">
         <f t="shared" si="4"/>
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="E36">
         <f t="shared" ref="E36:E67" si="7">E35+B36</f>
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="F36">
         <f t="shared" si="5"/>
-        <v>9.79366659686322e-8</v>
+        <v>2.45212074850692e-7</v>
       </c>
       <c r="G36">
         <f t="shared" si="6"/>
-        <v>0.00797165633303809</v>
+        <v>0.0056657223796034</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3074,26 +3236,26 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D37">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E37">
         <f t="shared" si="7"/>
-        <v>254</v>
+        <v>114</v>
       </c>
       <c r="F37">
         <f t="shared" si="5"/>
-        <v>3.80864812100236e-8</v>
+        <v>1.96169659880553e-7</v>
       </c>
       <c r="G37">
         <f t="shared" si="6"/>
-        <v>0.00937407735459108</v>
+        <v>0.00598048473402581</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3101,10 +3263,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C38">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <f t="shared" si="4"/>
@@ -3112,15 +3274,15 @@
       </c>
       <c r="E38">
         <f t="shared" si="7"/>
-        <v>282</v>
+        <v>132</v>
       </c>
       <c r="F38">
         <f t="shared" si="5"/>
-        <v>1.63227776614387e-8</v>
+        <v>9.80848299402766e-8</v>
       </c>
       <c r="G38">
         <f t="shared" si="6"/>
-        <v>0.0104074402125775</v>
+        <v>0.00692477179729304</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3128,26 +3290,26 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D39">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E39">
         <f t="shared" si="7"/>
-        <v>306</v>
+        <v>138</v>
       </c>
       <c r="F39">
         <f t="shared" si="5"/>
-        <v>2.72046294357312e-9</v>
+        <v>9.80848299402766e-8</v>
       </c>
       <c r="G39">
         <f t="shared" si="6"/>
-        <v>0.0112931798051373</v>
+        <v>0.00723953415171546</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3155,26 +3317,26 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E40">
         <f t="shared" si="7"/>
-        <v>336</v>
+        <v>156</v>
       </c>
       <c r="F40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.90424149701383e-8</v>
       </c>
       <c r="G40">
         <f t="shared" si="6"/>
-        <v>0.012400354295837</v>
+        <v>0.00818382121498269</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3182,26 +3344,26 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E41">
         <f t="shared" si="7"/>
-        <v>366</v>
+        <v>174</v>
       </c>
       <c r="F41">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.90424149701383e-8</v>
       </c>
       <c r="G41">
         <f t="shared" si="6"/>
-        <v>0.0135075287865368</v>
+        <v>0.00912810827824992</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3209,26 +3371,26 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E42">
         <f t="shared" si="7"/>
-        <v>386</v>
+        <v>210</v>
       </c>
       <c r="F42">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.90424149701383e-8</v>
       </c>
       <c r="G42">
         <f t="shared" si="6"/>
-        <v>0.0142456451136699</v>
+        <v>0.0110166824047844</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3236,26 +3398,26 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E43">
         <f t="shared" si="7"/>
-        <v>422</v>
+        <v>240</v>
       </c>
       <c r="F43">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.90424149701383e-8</v>
       </c>
       <c r="G43">
         <f t="shared" si="6"/>
-        <v>0.0155742545025096</v>
+        <v>0.0125904941768964</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3263,26 +3425,26 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E44">
         <f t="shared" si="7"/>
-        <v>470</v>
+        <v>258</v>
       </c>
       <c r="F44">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.90424149701383e-8</v>
       </c>
       <c r="G44">
         <f t="shared" si="6"/>
-        <v>0.0173457336876292</v>
+        <v>0.0135347812401637</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3290,26 +3452,26 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E45">
         <f t="shared" si="7"/>
-        <v>510</v>
+        <v>324</v>
       </c>
       <c r="F45">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.90424149701383e-8</v>
       </c>
       <c r="G45">
         <f t="shared" si="6"/>
-        <v>0.0188219663418955</v>
+        <v>0.0169971671388102</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3317,26 +3479,26 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E46">
         <f t="shared" si="7"/>
-        <v>542</v>
+        <v>372</v>
       </c>
       <c r="F46">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.90424149701383e-8</v>
       </c>
       <c r="G46">
         <f t="shared" si="6"/>
-        <v>0.0200029524653085</v>
+        <v>0.0195152659741895</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3344,26 +3506,26 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E47">
         <f t="shared" si="7"/>
-        <v>586</v>
+        <v>408</v>
       </c>
       <c r="F47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.90424149701383e-8</v>
       </c>
       <c r="G47">
         <f t="shared" si="6"/>
-        <v>0.0216268083850015</v>
+        <v>0.021403840100724</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3371,26 +3533,26 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E48">
         <f t="shared" si="7"/>
-        <v>642</v>
+        <v>432</v>
       </c>
       <c r="F48">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.90424149701383e-8</v>
       </c>
       <c r="G48">
         <f t="shared" si="6"/>
-        <v>0.0236935341009743</v>
+        <v>0.0226628895184136</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3398,26 +3560,26 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E49">
         <f t="shared" si="7"/>
-        <v>690</v>
+        <v>492</v>
       </c>
       <c r="F49">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.90424149701383e-8</v>
       </c>
       <c r="G49">
         <f t="shared" si="6"/>
-        <v>0.0254650132860939</v>
+        <v>0.0258105130626377</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3425,26 +3587,26 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E50">
         <f t="shared" si="7"/>
-        <v>754</v>
+        <v>528</v>
       </c>
       <c r="F50">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.90424149701383e-8</v>
       </c>
       <c r="G50">
         <f t="shared" si="6"/>
-        <v>0.02782698553292</v>
+        <v>0.0276990871891722</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3452,26 +3614,26 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E51">
         <f t="shared" si="7"/>
-        <v>813</v>
+        <v>594</v>
       </c>
       <c r="F51">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.90424149701383e-8</v>
       </c>
       <c r="G51">
         <f t="shared" si="6"/>
-        <v>0.0300044286979628</v>
+        <v>0.0311614730878187</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3479,26 +3641,26 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E52">
         <f t="shared" si="7"/>
-        <v>860</v>
+        <v>612</v>
       </c>
       <c r="F52">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.90424149701383e-8</v>
       </c>
       <c r="G52">
         <f t="shared" si="6"/>
-        <v>0.0317390020667257</v>
+        <v>0.0321057601510859</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3506,26 +3668,26 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E53">
         <f t="shared" si="7"/>
-        <v>930</v>
+        <v>702</v>
       </c>
       <c r="F53">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.90424149701383e-8</v>
       </c>
       <c r="G53">
         <f t="shared" si="6"/>
-        <v>0.0343224092116918</v>
+        <v>0.0368271954674221</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3533,26 +3695,26 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E54">
         <f t="shared" si="7"/>
-        <v>986</v>
+        <v>750</v>
       </c>
       <c r="F54">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.90424149701383e-8</v>
       </c>
       <c r="G54">
         <f t="shared" si="6"/>
-        <v>0.0363891349276646</v>
+        <v>0.0393452943028014</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3560,26 +3722,26 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E55">
         <f t="shared" si="7"/>
-        <v>1074</v>
+        <v>828</v>
       </c>
       <c r="F55">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.90424149701383e-8</v>
       </c>
       <c r="G55">
         <f t="shared" si="6"/>
-        <v>0.0396368467670505</v>
+        <v>0.0434372049102927</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3587,26 +3749,26 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E56">
         <f t="shared" si="7"/>
-        <v>1162</v>
+        <v>918</v>
       </c>
       <c r="F56">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.90424149701383e-8</v>
       </c>
       <c r="G56">
         <f t="shared" si="6"/>
-        <v>0.0428845586064364</v>
+        <v>0.0481586402266289</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3614,26 +3776,26 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E57">
         <f t="shared" si="7"/>
-        <v>1274</v>
+        <v>1026</v>
       </c>
       <c r="F57">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.90424149701383e-8</v>
       </c>
       <c r="G57">
         <f t="shared" si="6"/>
-        <v>0.047018010038382</v>
+        <v>0.0538243626062323</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3641,26 +3803,26 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E58">
         <f t="shared" si="7"/>
-        <v>1370</v>
+        <v>1104</v>
       </c>
       <c r="F58">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.90424149701383e-8</v>
       </c>
       <c r="G58">
         <f t="shared" si="6"/>
-        <v>0.0505609684086212</v>
+        <v>0.0579162732137236</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3668,26 +3830,26 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E59">
         <f t="shared" si="7"/>
-        <v>1500</v>
+        <v>1230</v>
       </c>
       <c r="F59">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.90424149701383e-8</v>
       </c>
       <c r="G59">
         <f t="shared" si="6"/>
-        <v>0.0553587245349867</v>
+        <v>0.0645262826565943</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3695,26 +3857,26 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E60">
         <f t="shared" si="7"/>
-        <v>1632</v>
+        <v>1374</v>
       </c>
       <c r="F60">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.90424149701383e-8</v>
       </c>
       <c r="G60">
         <f t="shared" si="6"/>
-        <v>0.0602302922940655</v>
+        <v>0.0720805791627321</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3722,26 +3884,26 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E61">
         <f t="shared" si="7"/>
-        <v>1774</v>
+        <v>1482</v>
       </c>
       <c r="F61">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.90424149701383e-8</v>
       </c>
       <c r="G61">
         <f t="shared" si="6"/>
-        <v>0.065470918216711</v>
+        <v>0.0777463015423355</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3749,26 +3911,26 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E62">
         <f t="shared" si="7"/>
-        <v>1938</v>
+        <v>1632</v>
       </c>
       <c r="F62">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.90424149701383e-8</v>
       </c>
       <c r="G62">
         <f t="shared" si="6"/>
-        <v>0.0715234720992028</v>
+        <v>0.0856153604028958</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3776,26 +3938,26 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D63">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E63">
         <f t="shared" si="7"/>
-        <v>2128</v>
+        <v>1806</v>
       </c>
       <c r="F63">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.90424149701383e-8</v>
       </c>
       <c r="G63">
         <f t="shared" si="6"/>
-        <v>0.0785355772069678</v>
+        <v>0.0947434686811457</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3803,7 +3965,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -3814,7 +3976,7 @@
       </c>
       <c r="E64">
         <f t="shared" si="7"/>
-        <v>2324</v>
+        <v>1938</v>
       </c>
       <c r="F64">
         <f t="shared" si="5"/>
@@ -3822,7 +3984,7 @@
       </c>
       <c r="G64">
         <f t="shared" si="6"/>
-        <v>0.0857691172128728</v>
+        <v>0.101668240478439</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3830,7 +3992,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>234</v>
+        <v>168</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -3841,7 +4003,7 @@
       </c>
       <c r="E65">
         <f t="shared" si="7"/>
-        <v>2558</v>
+        <v>2106</v>
       </c>
       <c r="F65">
         <f t="shared" si="5"/>
@@ -3849,7 +4011,7 @@
       </c>
       <c r="G65">
         <f t="shared" si="6"/>
-        <v>0.0944050782403307</v>
+        <v>0.110481586402266</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3857,7 +4019,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -3868,7 +4030,7 @@
       </c>
       <c r="E66">
         <f t="shared" si="7"/>
-        <v>2760</v>
+        <v>2304</v>
       </c>
       <c r="F66">
         <f t="shared" si="5"/>
@@ -3876,7 +4038,7 @@
       </c>
       <c r="G66">
         <f t="shared" si="6"/>
-        <v>0.101860053144376</v>
+        <v>0.120868744098206</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3884,7 +4046,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -3895,7 +4057,7 @@
       </c>
       <c r="E67">
         <f t="shared" si="7"/>
-        <v>3008</v>
+        <v>2556</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F98" si="9">D67/SUM(C:C)</f>
@@ -3903,7 +4065,7 @@
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G98" si="10">E67/SUM(B:B)</f>
-        <v>0.111012695600827</v>
+        <v>0.134088762983947</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3911,7 +4073,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>284</v>
+        <v>198</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -3922,7 +4084,7 @@
       </c>
       <c r="E68">
         <f t="shared" ref="E68:E102" si="11">E67+B68</f>
-        <v>3292</v>
+        <v>2754</v>
       </c>
       <c r="F68">
         <f t="shared" si="9"/>
@@ -3930,7 +4092,7 @@
       </c>
       <c r="G68">
         <f t="shared" si="10"/>
-        <v>0.121493947446118</v>
+        <v>0.144475920679887</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3938,7 +4100,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -3949,7 +4111,7 @@
       </c>
       <c r="E69">
         <f t="shared" si="11"/>
-        <v>3577</v>
+        <v>3000</v>
       </c>
       <c r="F69">
         <f t="shared" si="9"/>
@@ -3957,7 +4119,7 @@
       </c>
       <c r="G69">
         <f t="shared" si="10"/>
-        <v>0.132012105107765</v>
+        <v>0.157381177211206</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3965,7 +4127,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -3976,7 +4138,7 @@
       </c>
       <c r="E70">
         <f t="shared" si="11"/>
-        <v>3891</v>
+        <v>3348</v>
       </c>
       <c r="F70">
         <f t="shared" si="9"/>
@@ -3984,7 +4146,7 @@
       </c>
       <c r="G70">
         <f t="shared" si="10"/>
-        <v>0.143600531443756</v>
+        <v>0.175637393767705</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3992,7 +4154,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -4003,7 +4165,7 @@
       </c>
       <c r="E71">
         <f t="shared" si="11"/>
-        <v>4211</v>
+        <v>3648</v>
       </c>
       <c r="F71">
         <f t="shared" si="9"/>
@@ -4011,7 +4173,7 @@
       </c>
       <c r="G71">
         <f t="shared" si="10"/>
-        <v>0.155410392677886</v>
+        <v>0.191375511488826</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -4019,7 +4181,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>387</v>
+        <v>294</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -4030,7 +4192,7 @@
       </c>
       <c r="E72">
         <f t="shared" si="11"/>
-        <v>4598</v>
+        <v>3942</v>
       </c>
       <c r="F72">
         <f t="shared" si="9"/>
@@ -4038,7 +4200,7 @@
       </c>
       <c r="G72">
         <f t="shared" si="10"/>
-        <v>0.169692943607913</v>
+        <v>0.206798866855524</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -4046,7 +4208,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -4057,7 +4219,7 @@
       </c>
       <c r="E73">
         <f t="shared" si="11"/>
-        <v>4960</v>
+        <v>4260</v>
       </c>
       <c r="F73">
         <f t="shared" si="9"/>
@@ -4065,7 +4227,7 @@
       </c>
       <c r="G73">
         <f t="shared" si="10"/>
-        <v>0.183052849129023</v>
+        <v>0.223481271639912</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -4073,7 +4235,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>464</v>
+        <v>384</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -4084,7 +4246,7 @@
       </c>
       <c r="E74">
         <f t="shared" si="11"/>
-        <v>5424</v>
+        <v>4644</v>
       </c>
       <c r="F74">
         <f t="shared" si="9"/>
@@ -4092,7 +4254,7 @@
       </c>
       <c r="G74">
         <f t="shared" si="10"/>
-        <v>0.200177147918512</v>
+        <v>0.243626062322946</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -4100,7 +4262,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>526</v>
+        <v>450</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -4111,7 +4273,7 @@
       </c>
       <c r="E75">
         <f t="shared" si="11"/>
-        <v>5950</v>
+        <v>5094</v>
       </c>
       <c r="F75">
         <f t="shared" si="9"/>
@@ -4119,7 +4281,7 @@
       </c>
       <c r="G75">
         <f t="shared" si="10"/>
-        <v>0.219589607322114</v>
+        <v>0.267233238904627</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -4127,7 +4289,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>558</v>
+        <v>402</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -4138,7 +4300,7 @@
       </c>
       <c r="E76">
         <f t="shared" si="11"/>
-        <v>6508</v>
+        <v>5496</v>
       </c>
       <c r="F76">
         <f t="shared" si="9"/>
@@ -4146,7 +4308,7 @@
       </c>
       <c r="G76">
         <f t="shared" si="10"/>
-        <v>0.240183052849129</v>
+        <v>0.288322316650929</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -4154,7 +4316,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>572</v>
+        <v>474</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -4165,7 +4327,7 @@
       </c>
       <c r="E77">
         <f t="shared" si="11"/>
-        <v>7080</v>
+        <v>5970</v>
       </c>
       <c r="F77">
         <f t="shared" si="9"/>
@@ -4173,7 +4335,7 @@
       </c>
       <c r="G77">
         <f t="shared" si="10"/>
-        <v>0.261293179805137</v>
+        <v>0.313188542650299</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -4181,7 +4343,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>650</v>
+        <v>546</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -4192,7 +4354,7 @@
       </c>
       <c r="E78">
         <f t="shared" si="11"/>
-        <v>7730</v>
+        <v>6516</v>
       </c>
       <c r="F78">
         <f t="shared" si="9"/>
@@ -4200,7 +4362,7 @@
       </c>
       <c r="G78">
         <f t="shared" si="10"/>
-        <v>0.285281960436965</v>
+        <v>0.341831916902738</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -4208,7 +4370,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>672</v>
+        <v>417</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -4219,7 +4381,7 @@
       </c>
       <c r="E79">
         <f t="shared" si="11"/>
-        <v>8402</v>
+        <v>6933</v>
       </c>
       <c r="F79">
         <f t="shared" si="9"/>
@@ -4227,7 +4389,7 @@
       </c>
       <c r="G79">
         <f t="shared" si="10"/>
-        <v>0.310082669028639</v>
+        <v>0.363707900535096</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -4235,7 +4397,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>739</v>
+        <v>579</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -4246,7 +4408,7 @@
       </c>
       <c r="E80">
         <f t="shared" si="11"/>
-        <v>9141</v>
+        <v>7512</v>
       </c>
       <c r="F80">
         <f t="shared" si="9"/>
@@ -4254,7 +4416,7 @@
       </c>
       <c r="G80">
         <f t="shared" si="10"/>
-        <v>0.337356067316209</v>
+        <v>0.394082467736859</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -4262,7 +4424,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>847</v>
+        <v>582</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -4273,7 +4435,7 @@
       </c>
       <c r="E81">
         <f t="shared" si="11"/>
-        <v>9988</v>
+        <v>8094</v>
       </c>
       <c r="F81">
         <f t="shared" si="9"/>
@@ -4281,7 +4443,7 @@
       </c>
       <c r="G81">
         <f t="shared" si="10"/>
-        <v>0.368615293770298</v>
+        <v>0.424614416115833</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -4289,7 +4451,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>878</v>
+        <v>534</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -4300,7 +4462,7 @@
       </c>
       <c r="E82">
         <f t="shared" si="11"/>
-        <v>10866</v>
+        <v>8628</v>
       </c>
       <c r="F82">
         <f t="shared" si="9"/>
@@ -4308,7 +4470,7 @@
       </c>
       <c r="G82">
         <f t="shared" si="10"/>
-        <v>0.401018600531444</v>
+        <v>0.452628265659427</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -4316,7 +4478,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>939</v>
+        <v>666</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -4327,7 +4489,7 @@
       </c>
       <c r="E83">
         <f t="shared" si="11"/>
-        <v>11805</v>
+        <v>9294</v>
       </c>
       <c r="F83">
         <f t="shared" si="9"/>
@@ -4335,7 +4497,7 @@
       </c>
       <c r="G83">
         <f t="shared" si="10"/>
-        <v>0.435673162090345</v>
+        <v>0.487566887000315</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -4343,7 +4505,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>995</v>
+        <v>636</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4354,7 +4516,7 @@
       </c>
       <c r="E84">
         <f t="shared" si="11"/>
-        <v>12800</v>
+        <v>9930</v>
       </c>
       <c r="F84">
         <f t="shared" si="9"/>
@@ -4362,7 +4524,7 @@
       </c>
       <c r="G84">
         <f t="shared" si="10"/>
-        <v>0.47239444936522</v>
+        <v>0.52093169656909</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4370,7 +4532,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1048</v>
+        <v>876</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -4381,7 +4543,7 @@
       </c>
       <c r="E85">
         <f t="shared" si="11"/>
-        <v>13848</v>
+        <v>10806</v>
       </c>
       <c r="F85">
         <f t="shared" si="9"/>
@@ -4389,7 +4551,7 @@
       </c>
       <c r="G85">
         <f t="shared" si="10"/>
-        <v>0.511071744906997</v>
+        <v>0.566887000314762</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4397,7 +4559,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1094</v>
+        <v>786</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -4408,7 +4570,7 @@
       </c>
       <c r="E86">
         <f t="shared" si="11"/>
-        <v>14942</v>
+        <v>11592</v>
       </c>
       <c r="F86">
         <f t="shared" si="9"/>
@@ -4416,7 +4578,7 @@
       </c>
       <c r="G86">
         <f t="shared" si="10"/>
-        <v>0.551446708001181</v>
+        <v>0.608120868744098</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4424,7 +4586,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1164</v>
+        <v>756</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -4435,7 +4597,7 @@
       </c>
       <c r="E87">
         <f t="shared" si="11"/>
-        <v>16106</v>
+        <v>12348</v>
       </c>
       <c r="F87">
         <f t="shared" si="9"/>
@@ -4443,7 +4605,7 @@
       </c>
       <c r="G87">
         <f t="shared" si="10"/>
-        <v>0.594405078240331</v>
+        <v>0.647780925401322</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4451,7 +4613,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1154</v>
+        <v>672</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -4462,7 +4624,7 @@
       </c>
       <c r="E88">
         <f t="shared" si="11"/>
-        <v>17260</v>
+        <v>13020</v>
       </c>
       <c r="F88">
         <f t="shared" si="9"/>
@@ -4470,7 +4632,7 @@
       </c>
       <c r="G88">
         <f t="shared" si="10"/>
-        <v>0.636994390315914</v>
+        <v>0.683034309096632</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4478,7 +4640,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1228</v>
+        <v>684</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -4489,7 +4651,7 @@
       </c>
       <c r="E89">
         <f t="shared" si="11"/>
-        <v>18488</v>
+        <v>13704</v>
       </c>
       <c r="F89">
         <f t="shared" si="9"/>
@@ -4497,7 +4659,7 @@
       </c>
       <c r="G89">
         <f t="shared" si="10"/>
-        <v>0.68231473280189</v>
+        <v>0.718917217500787</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4505,7 +4667,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1178</v>
+        <v>744</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -4516,7 +4678,7 @@
       </c>
       <c r="E90">
         <f t="shared" si="11"/>
-        <v>19666</v>
+        <v>14448</v>
       </c>
       <c r="F90">
         <f t="shared" si="9"/>
@@ -4524,7 +4686,7 @@
       </c>
       <c r="G90">
         <f t="shared" si="10"/>
-        <v>0.725789784470033</v>
+        <v>0.757947749449166</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4532,7 +4694,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1200</v>
+        <v>564</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -4543,7 +4705,7 @@
       </c>
       <c r="E91">
         <f t="shared" si="11"/>
-        <v>20866</v>
+        <v>15012</v>
       </c>
       <c r="F91">
         <f t="shared" si="9"/>
@@ -4551,7 +4713,7 @@
       </c>
       <c r="G91">
         <f t="shared" si="10"/>
-        <v>0.770076764098022</v>
+        <v>0.787535410764873</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4559,7 +4721,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1190</v>
+        <v>642</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -4570,7 +4732,7 @@
       </c>
       <c r="E92">
         <f t="shared" si="11"/>
-        <v>22056</v>
+        <v>15654</v>
       </c>
       <c r="F92">
         <f t="shared" si="9"/>
@@ -4578,7 +4740,7 @@
       </c>
       <c r="G92">
         <f t="shared" si="10"/>
-        <v>0.813994685562445</v>
+        <v>0.82121498268807</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4586,7 +4748,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1126</v>
+        <v>576</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -4597,7 +4759,7 @@
       </c>
       <c r="E93">
         <f t="shared" si="11"/>
-        <v>23182</v>
+        <v>16230</v>
       </c>
       <c r="F93">
         <f t="shared" si="9"/>
@@ -4605,7 +4767,7 @@
       </c>
       <c r="G93">
         <f t="shared" si="10"/>
-        <v>0.855550634780041</v>
+        <v>0.851432168712622</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4613,7 +4775,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>984</v>
+        <v>636</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -4624,7 +4786,7 @@
       </c>
       <c r="E94">
         <f t="shared" si="11"/>
-        <v>24166</v>
+        <v>16866</v>
       </c>
       <c r="F94">
         <f t="shared" si="9"/>
@@ -4632,7 +4794,7 @@
       </c>
       <c r="G94">
         <f t="shared" si="10"/>
-        <v>0.891865958074993</v>
+        <v>0.884796978281398</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4640,7 +4802,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>828</v>
+        <v>462</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -4651,7 +4813,7 @@
       </c>
       <c r="E95">
         <f t="shared" si="11"/>
-        <v>24994</v>
+        <v>17328</v>
       </c>
       <c r="F95">
         <f t="shared" si="9"/>
@@ -4659,7 +4821,7 @@
       </c>
       <c r="G95">
         <f t="shared" si="10"/>
-        <v>0.922423974018305</v>
+        <v>0.909033679571923</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4667,7 +4829,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>706</v>
+        <v>378</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -4678,7 +4840,7 @@
       </c>
       <c r="E96">
         <f t="shared" si="11"/>
-        <v>25700</v>
+        <v>17706</v>
       </c>
       <c r="F96">
         <f t="shared" si="9"/>
@@ -4686,7 +4848,7 @@
       </c>
       <c r="G96">
         <f t="shared" si="10"/>
-        <v>0.948479480366106</v>
+        <v>0.928863707900535</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4694,7 +4856,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>520</v>
+        <v>348</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -4705,7 +4867,7 @@
       </c>
       <c r="E97">
         <f t="shared" si="11"/>
-        <v>26220</v>
+        <v>18054</v>
       </c>
       <c r="F97">
         <f t="shared" si="9"/>
@@ -4713,7 +4875,7 @@
       </c>
       <c r="G97">
         <f t="shared" si="10"/>
-        <v>0.967670504871568</v>
+        <v>0.947119924457035</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4721,7 +4883,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -4732,7 +4894,7 @@
       </c>
       <c r="E98">
         <f t="shared" si="11"/>
-        <v>26620</v>
+        <v>18354</v>
       </c>
       <c r="F98">
         <f t="shared" si="9"/>
@@ -4740,7 +4902,7 @@
       </c>
       <c r="G98">
         <f t="shared" si="10"/>
-        <v>0.982432831414231</v>
+        <v>0.962858042178156</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4748,7 +4910,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -4759,7 +4921,7 @@
       </c>
       <c r="E99">
         <f t="shared" si="11"/>
-        <v>26878</v>
+        <v>18594</v>
       </c>
       <c r="F99">
         <f>D99/SUM(C:C)</f>
@@ -4767,7 +4929,7 @@
       </c>
       <c r="G99">
         <f>E99/SUM(B:B)</f>
-        <v>0.991954532034249</v>
+        <v>0.975448536355052</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4775,7 +4937,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -4786,7 +4948,7 @@
       </c>
       <c r="E100">
         <f t="shared" si="11"/>
-        <v>27014</v>
+        <v>18792</v>
       </c>
       <c r="F100">
         <f>D100/SUM(C:C)</f>
@@ -4794,7 +4956,7 @@
       </c>
       <c r="G100">
         <f>E100/SUM(B:B)</f>
-        <v>0.996973723058754</v>
+        <v>0.985835694050991</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4802,7 +4964,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -4813,7 +4975,7 @@
       </c>
       <c r="E101">
         <f t="shared" si="11"/>
-        <v>27090</v>
+        <v>18966</v>
       </c>
       <c r="F101">
         <f>D101/SUM(C:C)</f>
@@ -4821,7 +4983,7 @@
       </c>
       <c r="G101">
         <f>E101/SUM(B:B)</f>
-        <v>0.99977856510186</v>
+        <v>0.994963802329241</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4829,7 +4991,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -4840,7 +5002,7 @@
       </c>
       <c r="E102">
         <f t="shared" si="11"/>
-        <v>27096</v>
+        <v>19062</v>
       </c>
       <c r="F102">
         <f>D102/SUM(C:C)</f>

--- a/include/farfrr/farfrr.xlsx
+++ b/include/farfrr/farfrr.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23625" windowHeight="12540"/>
+    <workbookView windowWidth="23580" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="farfrr" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -80,7 +80,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,47 +101,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,11 +116,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,21 +163,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,6 +221,54 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -254,108 +302,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -374,7 +320,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,6 +418,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -437,37 +491,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,30 +503,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,10 +523,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -535,7 +535,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,124 +544,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -823,306 +823,162 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>farfrr!$F$16:$F$63</c:f>
+              <c:f>farfrr!$F$16:$F$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.840545600789936</c:v>
+                  <c:v>0.796213899619967</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.692004585661969</c:v>
+                  <c:v>0.62515455494075</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51582728693486</c:v>
+                  <c:v>0.438923593774205</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.347611754544871</c:v>
+                  <c:v>0.276700441957704</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.213170531805649</c:v>
+                  <c:v>0.158333125127236</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.120144892872484</c:v>
+                  <c:v>0.0833428622082037</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0632729299159859</c:v>
+                  <c:v>0.0410733645305867</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0311607657933864</c:v>
+                  <c:v>0.0190003157804566</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0145528462182388</c:v>
+                  <c:v>0.00838044458763027</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00651351930184395</c:v>
+                  <c:v>0.00354858818637443</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00280937022035689</c:v>
+                  <c:v>0.0014582687948841</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00119121573841717</c:v>
+                  <c:v>0.000584756708563682</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.000488462453102578</c:v>
+                  <c:v>0.000232032365151766</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.000198866992703911</c:v>
+                  <c:v>9.00187585713626e-5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.94487122516241e-5</c:v>
+                  <c:v>3.46206114199115e-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.09948062611274e-5</c:v>
+                  <c:v>1.35479054589941e-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.20153916676839e-5</c:v>
+                  <c:v>5.10902940803031e-6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.05136874192425e-6</c:v>
+                  <c:v>1.95193216201371e-6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.35403591856664e-6</c:v>
+                  <c:v>7.68530781559405e-7</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.33721054492351e-7</c:v>
+                  <c:v>2.74766757300885e-7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.45212074850692e-7</c:v>
+                  <c:v>9.79366659686322e-8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.96169659880553e-7</c:v>
+                  <c:v>3.80864812100236e-8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.80848299402766e-8</c:v>
+                  <c:v>1.63227776614387e-8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.80848299402766e-8</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.90424149701383e-8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.90424149701383e-8</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.90424149701383e-8</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.90424149701383e-8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.90424149701383e-8</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.90424149701383e-8</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.90424149701383e-8</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4.90424149701383e-8</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4.90424149701383e-8</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.90424149701383e-8</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.90424149701383e-8</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4.90424149701383e-8</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4.90424149701383e-8</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4.90424149701383e-8</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4.90424149701383e-8</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4.90424149701383e-8</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4.90424149701383e-8</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4.90424149701383e-8</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.90424149701383e-8</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4.90424149701383e-8</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.90424149701383e-8</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4.90424149701383e-8</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4.90424149701383e-8</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4.90424149701383e-8</c:v>
+                  <c:v>2.72046294357312e-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>farfrr!$G$16:$G$63</c:f>
+              <c:f>farfrr!$G$16:$G$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.000314762354422411</c:v>
+                  <c:v>0.000295246530853262</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000314762354422411</c:v>
+                  <c:v>0.000369058163566578</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000314762354422411</c:v>
+                  <c:v>0.000369058163566578</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000314762354422411</c:v>
+                  <c:v>0.000590493061706525</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000944287063267233</c:v>
+                  <c:v>0.000664304694419841</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000944287063267233</c:v>
+                  <c:v>0.000664304694419841</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.000944287063267233</c:v>
+                  <c:v>0.000885739592559787</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000944287063267233</c:v>
+                  <c:v>0.00125479775612637</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.000944287063267233</c:v>
+                  <c:v>0.00125479775612637</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00125904941768964</c:v>
+                  <c:v>0.00155004428697963</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00157381177211206</c:v>
+                  <c:v>0.00177147918511957</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00188857412653447</c:v>
+                  <c:v>0.00258340714496605</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00251809883537929</c:v>
+                  <c:v>0.00346914673752583</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00314762354422411</c:v>
+                  <c:v>0.00405963979923236</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00346238589864652</c:v>
+                  <c:v>0.00442869796279894</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00377714825306893</c:v>
+                  <c:v>0.00501919102450546</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00409191060749134</c:v>
+                  <c:v>0.00553587245349867</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.00472143531633617</c:v>
+                  <c:v>0.00597874224977857</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00472143531633617</c:v>
+                  <c:v>0.00671685857691172</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00503619767075858</c:v>
+                  <c:v>0.0070859167404783</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0056657223796034</c:v>
+                  <c:v>0.00797165633303809</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.00598048473402581</c:v>
+                  <c:v>0.00937407735459108</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.00692477179729304</c:v>
+                  <c:v>0.0104074402125775</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.00723953415171546</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.00818382121498269</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.00912810827824992</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.0110166824047844</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.0125904941768964</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.0135347812401637</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.0169971671388102</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.0195152659741895</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.021403840100724</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.0226628895184136</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.0258105130626377</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.0276990871891722</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.0311614730878187</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.0321057601510859</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.0368271954674221</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.0393452943028014</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.0434372049102927</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.0481586402266289</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.0538243626062323</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.0579162732137236</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.0645262826565943</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.0720805791627321</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.0777463015423355</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.0856153604028958</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.0947434686811457</c:v>
+                  <c:v>0.0112931798051373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1354,7 +1210,1688 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="accent5">
+      <a:schemeClr val="accent1">
+        <a:lumMod val="20000"/>
+        <a:lumOff val="80000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>FAR</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr altLang="en-US"/>
+              <a:t>和</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>FRR</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr altLang="en-US"/>
+              <a:t>曲线</a:t>
+            </a:r>
+            <a:endParaRPr altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smooth"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"FAR"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>farfrr!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>farfrr!$F$2:$F$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.999999994559074</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.999999710270697</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.999995222867071</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.999931641567385</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.999286426650595</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.994816472074491</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.974588751425468</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.915443231860356</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.796213899619967</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.62515455494075</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.438923593774205</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.276700441957704</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.158333125127236</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0833428622082037</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0410733645305867</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.0190003157804566</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.00838044458763027</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.00354858818637443</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0014582687948841</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.000584756708563682</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.000232032365151766</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.00187585713626e-5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.46206114199115e-5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.35479054589941e-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.10902940803031e-6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.95193216201371e-6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.68530781559405e-7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.74766757300885e-7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.79366659686322e-8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.80864812100236e-8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.63227776614387e-8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.72046294357312e-9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"FRR"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FRR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>farfrr!$A$2:$A$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>farfrr!$G$2:$G$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.000295246530853262</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.000369058163566578</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.000369058163566578</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.000590493061706525</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.000664304694419841</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.000664304694419841</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.000885739592559787</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.00125479775612637</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.00125479775612637</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.00155004428697963</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.00177147918511957</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.00258340714496605</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.00346914673752583</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.00405963979923236</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.00442869796279894</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.00501919102450546</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.00553587245349867</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.00597874224977857</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.00671685857691172</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0070859167404783</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.00797165633303809</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.00937407735459108</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0104074402125775</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0112931798051373</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.012400354295837</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.0135075287865368</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0142456451136699</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.0155742545025096</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.0173457336876292</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.0188219663418955</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.0200029524653085</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.0216268083850015</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.0236935341009743</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.0254650132860939</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.02782698553292</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.0300044286979628</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.0317390020667257</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.0343224092116918</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.0363891349276646</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.0396368467670505</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.0428845586064364</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.047018010038382</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0505609684086212</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.0553587245349867</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0602302922940655</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.065470918216711</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.0715234720992028</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.0785355772069678</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.0857691172128728</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.0944050782403307</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.101860053144376</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.111012695600827</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.121493947446118</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.132012105107765</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.143600531443756</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.155410392677886</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.169692943607913</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.183052849129023</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.200177147918512</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.219589607322114</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.240183052849129</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.261293179805137</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.285281960436965</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.310082669028639</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.337356067316209</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.368615293770298</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.401018600531444</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.435673162090345</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.47239444936522</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.511071744906997</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.551446708001181</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.594405078240331</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.636994390315914</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.68231473280189</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.725789784470033</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.770076764098022</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.813994685562445</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.855550634780041</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.891865958074993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.922423974018305</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.948479480366106</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.967670504871568</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.982432831414231</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.991954532034249</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.996973723058754</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99977856510186</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="725883669"/>
+        <c:axId val="887253650"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="725883669"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr altLang="en-US"/>
+                  <a:t>比对分数</a:t>
+                </a:r>
+                <a:endParaRPr altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="887253650"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="887253650"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>FAR</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr altLang="en-US"/>
+                  <a:t>和</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>FRR</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="725883669"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.807734917917212"/>
+          <c:y val="0.858761701428806"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1">
         <a:lumMod val="20000"/>
         <a:lumOff val="80000"/>
       </a:schemeClr>
@@ -1388,6 +2925,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1943,6 +3520,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1970,6 +4063,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>97790</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6127750" y="5559425"/>
+        <a:ext cx="6390640" cy="3904615"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2238,8 +4361,8 @@
   <sheetPr/>
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2283,7 +4406,7 @@
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D33" si="0">D3+C2</f>
-        <v>122343078</v>
+        <v>735168992</v>
       </c>
       <c r="E2">
         <f>B2</f>
@@ -2310,7 +4433,7 @@
       </c>
       <c r="D3">
         <f t="shared" si="0"/>
-        <v>122343078</v>
+        <v>735168992</v>
       </c>
       <c r="E3">
         <f>E2+B3</f>
@@ -2337,7 +4460,7 @@
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>122343078</v>
+        <v>735168992</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E35" si="3">E3+B4</f>
@@ -2364,7 +4487,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>122343078</v>
+        <v>735168992</v>
       </c>
       <c r="E5">
         <f t="shared" si="3"/>
@@ -2391,7 +4514,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>122343078</v>
+        <v>735168992</v>
       </c>
       <c r="E6">
         <f t="shared" si="3"/>
@@ -2414,11 +4537,11 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>122343078</v>
+        <v>735168992</v>
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
@@ -2441,11 +4564,11 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>122343078</v>
+        <v>735168988</v>
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
@@ -2453,7 +4576,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.999999994559074</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
@@ -2468,11 +4591,11 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>423</v>
+        <v>3299</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>122343048</v>
+        <v>735168779</v>
       </c>
       <c r="E9">
         <f t="shared" si="3"/>
@@ -2480,7 +4603,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>0.999999754787925</v>
+        <v>0.999999710270697</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
@@ -2495,11 +4618,11 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5478</v>
+        <v>46743</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>122342625</v>
+        <v>735165480</v>
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
@@ -2507,7 +4630,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>0.99999629729767</v>
+        <v>0.999995222867071</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
@@ -2522,11 +4645,11 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>56316</v>
+        <v>474342</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>122337147</v>
+        <v>735118737</v>
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
@@ -2534,7 +4657,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>0.999951521572802</v>
+        <v>0.999931641567385</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
@@ -2549,11 +4672,11 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>393060</v>
+        <v>3286172</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>122280831</v>
+        <v>734644395</v>
       </c>
       <c r="E12">
         <f t="shared" si="3"/>
@@ -2561,7 +4684,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>0.999491209465892</v>
+        <v>0.999286426650595</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
@@ -2576,11 +4699,11 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1811535</v>
+        <v>14870793</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>121887771</v>
+        <v>731358223</v>
       </c>
       <c r="E13">
         <f t="shared" si="3"/>
@@ -2588,7 +4711,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>0.996278440861199</v>
+        <v>0.994816472074491</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
@@ -2603,11 +4726,11 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5493174</v>
+        <v>43481952</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>120076236</v>
+        <v>716487430</v>
       </c>
       <c r="E14">
         <f t="shared" si="3"/>
@@ -2615,7 +4738,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>0.981471432327377</v>
+        <v>0.974588751425468</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
@@ -2630,11 +4753,11 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11748126</v>
+        <v>87653708</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>114583062</v>
+        <v>673005478</v>
       </c>
       <c r="E15">
         <f t="shared" si="3"/>
@@ -2642,7 +4765,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>0.936571679192181</v>
+        <v>0.915443231860356</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
@@ -2654,26 +4777,26 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>18172965</v>
+        <v>125757526</v>
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>102834936</v>
+        <v>585351770</v>
       </c>
       <c r="E16">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>0.840545600789936</v>
+        <v>0.796213899619967</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>0.000314762354422411</v>
+        <v>0.000295246530853262</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2681,26 +4804,26 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>21554073</v>
+        <v>136911228</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>84661971</v>
+        <v>459594244</v>
       </c>
       <c r="E17">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>0.692004585661969</v>
+        <v>0.62515455494075</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>0.000314762354422411</v>
+        <v>0.000369058163566578</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2711,23 +4834,23 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>20580006</v>
+        <v>119261431</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>63107898</v>
+        <v>322683016</v>
       </c>
       <c r="E18">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>0.51582728693486</v>
+        <v>0.438923593774205</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>0.000314762354422411</v>
+        <v>0.000369058163566578</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2735,26 +4858,26 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>16447953</v>
+        <v>87019981</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>42527892</v>
+        <v>203421585</v>
       </c>
       <c r="E19">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>0.347611754544871</v>
+        <v>0.276700441957704</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>0.000314762354422411</v>
+        <v>0.000590493061706525</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2762,14 +4885,14 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>11381043</v>
+        <v>55130516</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>26079939</v>
+        <v>116401604</v>
       </c>
       <c r="E20">
         <f t="shared" si="3"/>
@@ -2777,11 +4900,11 @@
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>0.213170531805649</v>
+        <v>0.158333125127236</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>0.000944287063267233</v>
+        <v>0.000664304694419841</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2792,11 +4915,11 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6957891</v>
+        <v>31075224</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>14698896</v>
+        <v>61271088</v>
       </c>
       <c r="E21">
         <f t="shared" si="3"/>
@@ -2804,11 +4927,11 @@
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>0.120144892872484</v>
+        <v>0.0833428622082037</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>0.000944287063267233</v>
+        <v>0.000664304694419841</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2816,26 +4939,26 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>3928701</v>
+        <v>16227421</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>7741005</v>
+        <v>30195864</v>
       </c>
       <c r="E22">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>0.0632729299159859</v>
+        <v>0.0410733645305867</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>0.000944287063267233</v>
+        <v>0.000885739592559787</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2843,26 +4966,26 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>2031864</v>
+        <v>7807400</v>
       </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>3812304</v>
+        <v>13968443</v>
       </c>
       <c r="E23">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>0.0311607657933864</v>
+        <v>0.0190003157804566</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>0.000944287063267233</v>
+        <v>0.00125479775612637</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2873,23 +4996,23 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>983556</v>
+        <v>3552231</v>
       </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>1780440</v>
+        <v>6161043</v>
       </c>
       <c r="E24">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>0.0145528462182388</v>
+        <v>0.00838044458763027</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>0.000944287063267233</v>
+        <v>0.00125479775612637</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2897,26 +5020,26 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>453177</v>
+        <v>1536738</v>
       </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>796884</v>
+        <v>2608812</v>
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>0.00651351930184395</v>
+        <v>0.00354858818637443</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>0.00125904941768964</v>
+        <v>0.00155004428697963</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2927,23 +5050,23 @@
         <v>6</v>
       </c>
       <c r="C26">
-        <v>197970</v>
+        <v>642179</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>343707</v>
+        <v>1072074</v>
       </c>
       <c r="E26">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>0.00280937022035689</v>
+        <v>0.0014582687948841</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>0.00157381177211206</v>
+        <v>0.00177147918511957</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2951,26 +5074,26 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C27">
-        <v>85977</v>
+        <v>259312</v>
       </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>145737</v>
+        <v>429895</v>
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>0.00119121573841717</v>
+        <v>0.000584756708563682</v>
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
-        <v>0.00188857412653447</v>
+        <v>0.00258340714496605</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2978,26 +5101,26 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C28">
-        <v>35430</v>
+        <v>104404</v>
       </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>59760</v>
+        <v>170583</v>
       </c>
       <c r="E28">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>0.000488462453102578</v>
+        <v>0.000232032365151766</v>
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
-        <v>0.00251809883537929</v>
+        <v>0.00346914673752583</v>
       </c>
       <c r="I28" t="s">
         <v>7</v>
@@ -3011,26 +5134,26 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C29">
-        <v>14610</v>
+        <v>40727</v>
       </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>24330</v>
+        <v>66179</v>
       </c>
       <c r="E29">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>0.000198866992703911</v>
+        <v>9.00187585713626e-5</v>
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
-        <v>0.00314762354422411</v>
+        <v>0.00405963979923236</v>
       </c>
       <c r="J29" t="s">
         <v>9</v>
@@ -3041,26 +5164,26 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C30">
-        <v>5928</v>
+        <v>15492</v>
       </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>9720</v>
+        <v>25452</v>
       </c>
       <c r="E30">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>7.94487122516241e-5</v>
+        <v>3.46206114199115e-5</v>
       </c>
       <c r="G30">
         <f t="shared" si="2"/>
-        <v>0.00346238589864652</v>
+        <v>0.00442869796279894</v>
       </c>
       <c r="J30" t="s">
         <v>10</v>
@@ -3071,26 +5194,26 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C31">
-        <v>2322</v>
+        <v>6204</v>
       </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>3792</v>
+        <v>9960</v>
       </c>
       <c r="E31">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>3.09948062611274e-5</v>
+        <v>1.35479054589941e-5</v>
       </c>
       <c r="G31">
         <f t="shared" si="2"/>
-        <v>0.00377714825306893</v>
+        <v>0.00501919102450546</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -3101,26 +5224,26 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C32">
-        <v>852</v>
+        <v>2321</v>
       </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>1470</v>
+        <v>3756</v>
       </c>
       <c r="E32">
         <f t="shared" si="3"/>
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>1.20153916676839e-5</v>
+        <v>5.10902940803031e-6</v>
       </c>
       <c r="G32">
         <f t="shared" si="2"/>
-        <v>0.00409191060749134</v>
+        <v>0.00553587245349867</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3131,23 +5254,23 @@
         <v>12</v>
       </c>
       <c r="C33">
-        <v>330</v>
+        <v>870</v>
       </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>618</v>
+        <v>1435</v>
       </c>
       <c r="E33">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>5.05136874192425e-6</v>
+        <v>1.95193216201371e-6</v>
       </c>
       <c r="G33">
         <f t="shared" si="2"/>
-        <v>0.00472143531633617</v>
+        <v>0.00597874224977857</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3155,26 +5278,26 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C34">
-        <v>186</v>
+        <v>363</v>
       </c>
       <c r="D34">
         <f t="shared" ref="D34:D65" si="4">D35+C34</f>
-        <v>288</v>
+        <v>565</v>
       </c>
       <c r="E34">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>182</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>2.35403591856664e-6</v>
+        <v>7.68530781559405e-7</v>
       </c>
       <c r="G34">
         <f t="shared" si="2"/>
-        <v>0.00472143531633617</v>
+        <v>0.00671685857691172</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3182,26 +5305,26 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C35">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="D35">
         <f t="shared" si="4"/>
-        <v>102</v>
+        <v>202</v>
       </c>
       <c r="E35">
         <f t="shared" si="3"/>
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="F35">
         <f t="shared" ref="F35:F66" si="5">D35/SUM(C:C)</f>
-        <v>8.33721054492351e-7</v>
+        <v>2.74766757300885e-7</v>
       </c>
       <c r="G35">
         <f t="shared" ref="G35:G66" si="6">E35/SUM(B:B)</f>
-        <v>0.00503619767075858</v>
+        <v>0.0070859167404783</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3209,26 +5332,26 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D36">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="E36">
         <f t="shared" ref="E36:E67" si="7">E35+B36</f>
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="F36">
         <f t="shared" si="5"/>
-        <v>2.45212074850692e-7</v>
+        <v>9.79366659686322e-8</v>
       </c>
       <c r="G36">
         <f t="shared" si="6"/>
-        <v>0.0056657223796034</v>
+        <v>0.00797165633303809</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3236,26 +5359,26 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C37">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D37">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E37">
         <f t="shared" si="7"/>
-        <v>114</v>
+        <v>254</v>
       </c>
       <c r="F37">
         <f t="shared" si="5"/>
-        <v>1.96169659880553e-7</v>
+        <v>3.80864812100236e-8</v>
       </c>
       <c r="G37">
         <f t="shared" si="6"/>
-        <v>0.00598048473402581</v>
+        <v>0.00937407735459108</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3263,10 +5386,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D38">
         <f t="shared" si="4"/>
@@ -3274,15 +5397,15 @@
       </c>
       <c r="E38">
         <f t="shared" si="7"/>
-        <v>132</v>
+        <v>282</v>
       </c>
       <c r="F38">
         <f t="shared" si="5"/>
-        <v>9.80848299402766e-8</v>
+        <v>1.63227776614387e-8</v>
       </c>
       <c r="G38">
         <f t="shared" si="6"/>
-        <v>0.00692477179729304</v>
+        <v>0.0104074402125775</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3290,26 +5413,26 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D39">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <f t="shared" si="7"/>
-        <v>138</v>
+        <v>306</v>
       </c>
       <c r="F39">
         <f t="shared" si="5"/>
-        <v>9.80848299402766e-8</v>
+        <v>2.72046294357312e-9</v>
       </c>
       <c r="G39">
         <f t="shared" si="6"/>
-        <v>0.00723953415171546</v>
+        <v>0.0112931798051373</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3317,26 +5440,26 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <f t="shared" si="7"/>
-        <v>156</v>
+        <v>336</v>
       </c>
       <c r="F40">
         <f t="shared" si="5"/>
-        <v>4.90424149701383e-8</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <f t="shared" si="6"/>
-        <v>0.00818382121498269</v>
+        <v>0.012400354295837</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3344,26 +5467,26 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <f t="shared" si="7"/>
-        <v>174</v>
+        <v>366</v>
       </c>
       <c r="F41">
         <f t="shared" si="5"/>
-        <v>4.90424149701383e-8</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <f t="shared" si="6"/>
-        <v>0.00912810827824992</v>
+        <v>0.0135075287865368</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3371,26 +5494,26 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <f t="shared" si="7"/>
-        <v>210</v>
+        <v>386</v>
       </c>
       <c r="F42">
         <f t="shared" si="5"/>
-        <v>4.90424149701383e-8</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <f t="shared" si="6"/>
-        <v>0.0110166824047844</v>
+        <v>0.0142456451136699</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3398,26 +5521,26 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
       <c r="D43">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <f t="shared" si="7"/>
-        <v>240</v>
+        <v>422</v>
       </c>
       <c r="F43">
         <f t="shared" si="5"/>
-        <v>4.90424149701383e-8</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <f t="shared" si="6"/>
-        <v>0.0125904941768964</v>
+        <v>0.0155742545025096</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3425,26 +5548,26 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
       <c r="D44">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <f t="shared" si="7"/>
-        <v>258</v>
+        <v>470</v>
       </c>
       <c r="F44">
         <f t="shared" si="5"/>
-        <v>4.90424149701383e-8</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <f t="shared" si="6"/>
-        <v>0.0135347812401637</v>
+        <v>0.0173457336876292</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3452,26 +5575,26 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <f t="shared" si="7"/>
-        <v>324</v>
+        <v>510</v>
       </c>
       <c r="F45">
         <f t="shared" si="5"/>
-        <v>4.90424149701383e-8</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <f t="shared" si="6"/>
-        <v>0.0169971671388102</v>
+        <v>0.0188219663418955</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3479,26 +5602,26 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <f t="shared" si="7"/>
-        <v>372</v>
+        <v>542</v>
       </c>
       <c r="F46">
         <f t="shared" si="5"/>
-        <v>4.90424149701383e-8</v>
+        <v>0</v>
       </c>
       <c r="G46">
         <f t="shared" si="6"/>
-        <v>0.0195152659741895</v>
+        <v>0.0200029524653085</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3506,26 +5629,26 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
       <c r="D47">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <f t="shared" si="7"/>
-        <v>408</v>
+        <v>586</v>
       </c>
       <c r="F47">
         <f t="shared" si="5"/>
-        <v>4.90424149701383e-8</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <f t="shared" si="6"/>
-        <v>0.021403840100724</v>
+        <v>0.0216268083850015</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3533,26 +5656,26 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
       <c r="D48">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <f t="shared" si="7"/>
-        <v>432</v>
+        <v>642</v>
       </c>
       <c r="F48">
         <f t="shared" si="5"/>
-        <v>4.90424149701383e-8</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <f t="shared" si="6"/>
-        <v>0.0226628895184136</v>
+        <v>0.0236935341009743</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3560,26 +5683,26 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <f t="shared" si="7"/>
-        <v>492</v>
+        <v>690</v>
       </c>
       <c r="F49">
         <f t="shared" si="5"/>
-        <v>4.90424149701383e-8</v>
+        <v>0</v>
       </c>
       <c r="G49">
         <f t="shared" si="6"/>
-        <v>0.0258105130626377</v>
+        <v>0.0254650132860939</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3587,26 +5710,26 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
       <c r="D50">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <f t="shared" si="7"/>
-        <v>528</v>
+        <v>754</v>
       </c>
       <c r="F50">
         <f t="shared" si="5"/>
-        <v>4.90424149701383e-8</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <f t="shared" si="6"/>
-        <v>0.0276990871891722</v>
+        <v>0.02782698553292</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3614,26 +5737,26 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <f t="shared" si="7"/>
-        <v>594</v>
+        <v>813</v>
       </c>
       <c r="F51">
         <f t="shared" si="5"/>
-        <v>4.90424149701383e-8</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <f t="shared" si="6"/>
-        <v>0.0311614730878187</v>
+        <v>0.0300044286979628</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3641,26 +5764,26 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <f t="shared" si="7"/>
-        <v>612</v>
+        <v>860</v>
       </c>
       <c r="F52">
         <f t="shared" si="5"/>
-        <v>4.90424149701383e-8</v>
+        <v>0</v>
       </c>
       <c r="G52">
         <f t="shared" si="6"/>
-        <v>0.0321057601510859</v>
+        <v>0.0317390020667257</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3668,26 +5791,26 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <f t="shared" si="7"/>
-        <v>702</v>
+        <v>930</v>
       </c>
       <c r="F53">
         <f t="shared" si="5"/>
-        <v>4.90424149701383e-8</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <f t="shared" si="6"/>
-        <v>0.0368271954674221</v>
+        <v>0.0343224092116918</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3695,26 +5818,26 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <f t="shared" si="7"/>
-        <v>750</v>
+        <v>986</v>
       </c>
       <c r="F54">
         <f t="shared" si="5"/>
-        <v>4.90424149701383e-8</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <f t="shared" si="6"/>
-        <v>0.0393452943028014</v>
+        <v>0.0363891349276646</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3722,26 +5845,26 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <f t="shared" si="7"/>
-        <v>828</v>
+        <v>1074</v>
       </c>
       <c r="F55">
         <f t="shared" si="5"/>
-        <v>4.90424149701383e-8</v>
+        <v>0</v>
       </c>
       <c r="G55">
         <f t="shared" si="6"/>
-        <v>0.0434372049102927</v>
+        <v>0.0396368467670505</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3749,26 +5872,26 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <f t="shared" si="7"/>
-        <v>918</v>
+        <v>1162</v>
       </c>
       <c r="F56">
         <f t="shared" si="5"/>
-        <v>4.90424149701383e-8</v>
+        <v>0</v>
       </c>
       <c r="G56">
         <f t="shared" si="6"/>
-        <v>0.0481586402266289</v>
+        <v>0.0428845586064364</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3776,26 +5899,26 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <f t="shared" si="7"/>
-        <v>1026</v>
+        <v>1274</v>
       </c>
       <c r="F57">
         <f t="shared" si="5"/>
-        <v>4.90424149701383e-8</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <f t="shared" si="6"/>
-        <v>0.0538243626062323</v>
+        <v>0.047018010038382</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3803,26 +5926,26 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <f t="shared" si="7"/>
-        <v>1104</v>
+        <v>1370</v>
       </c>
       <c r="F58">
         <f t="shared" si="5"/>
-        <v>4.90424149701383e-8</v>
+        <v>0</v>
       </c>
       <c r="G58">
         <f t="shared" si="6"/>
-        <v>0.0579162732137236</v>
+        <v>0.0505609684086212</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3830,26 +5953,26 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <f t="shared" si="7"/>
-        <v>1230</v>
+        <v>1500</v>
       </c>
       <c r="F59">
         <f t="shared" si="5"/>
-        <v>4.90424149701383e-8</v>
+        <v>0</v>
       </c>
       <c r="G59">
         <f t="shared" si="6"/>
-        <v>0.0645262826565943</v>
+        <v>0.0553587245349867</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3857,26 +5980,26 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <f t="shared" si="7"/>
-        <v>1374</v>
+        <v>1632</v>
       </c>
       <c r="F60">
         <f t="shared" si="5"/>
-        <v>4.90424149701383e-8</v>
+        <v>0</v>
       </c>
       <c r="G60">
         <f t="shared" si="6"/>
-        <v>0.0720805791627321</v>
+        <v>0.0602302922940655</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3884,26 +6007,26 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <f t="shared" si="7"/>
-        <v>1482</v>
+        <v>1774</v>
       </c>
       <c r="F61">
         <f t="shared" si="5"/>
-        <v>4.90424149701383e-8</v>
+        <v>0</v>
       </c>
       <c r="G61">
         <f t="shared" si="6"/>
-        <v>0.0777463015423355</v>
+        <v>0.065470918216711</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3911,26 +6034,26 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <f t="shared" si="7"/>
-        <v>1632</v>
+        <v>1938</v>
       </c>
       <c r="F62">
         <f t="shared" si="5"/>
-        <v>4.90424149701383e-8</v>
+        <v>0</v>
       </c>
       <c r="G62">
         <f t="shared" si="6"/>
-        <v>0.0856153604028958</v>
+        <v>0.0715234720992028</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3938,26 +6061,26 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="C63">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <f t="shared" si="7"/>
-        <v>1806</v>
+        <v>2128</v>
       </c>
       <c r="F63">
         <f t="shared" si="5"/>
-        <v>4.90424149701383e-8</v>
+        <v>0</v>
       </c>
       <c r="G63">
         <f t="shared" si="6"/>
-        <v>0.0947434686811457</v>
+        <v>0.0785355772069678</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3965,7 +6088,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -3976,7 +6099,7 @@
       </c>
       <c r="E64">
         <f t="shared" si="7"/>
-        <v>1938</v>
+        <v>2324</v>
       </c>
       <c r="F64">
         <f t="shared" si="5"/>
@@ -3984,7 +6107,7 @@
       </c>
       <c r="G64">
         <f t="shared" si="6"/>
-        <v>0.101668240478439</v>
+        <v>0.0857691172128728</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3992,7 +6115,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>168</v>
+        <v>234</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -4003,7 +6126,7 @@
       </c>
       <c r="E65">
         <f t="shared" si="7"/>
-        <v>2106</v>
+        <v>2558</v>
       </c>
       <c r="F65">
         <f t="shared" si="5"/>
@@ -4011,7 +6134,7 @@
       </c>
       <c r="G65">
         <f t="shared" si="6"/>
-        <v>0.110481586402266</v>
+        <v>0.0944050782403307</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -4019,7 +6142,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -4030,7 +6153,7 @@
       </c>
       <c r="E66">
         <f t="shared" si="7"/>
-        <v>2304</v>
+        <v>2760</v>
       </c>
       <c r="F66">
         <f t="shared" si="5"/>
@@ -4038,7 +6161,7 @@
       </c>
       <c r="G66">
         <f t="shared" si="6"/>
-        <v>0.120868744098206</v>
+        <v>0.101860053144376</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -4046,7 +6169,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -4057,7 +6180,7 @@
       </c>
       <c r="E67">
         <f t="shared" si="7"/>
-        <v>2556</v>
+        <v>3008</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F98" si="9">D67/SUM(C:C)</f>
@@ -4065,7 +6188,7 @@
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G98" si="10">E67/SUM(B:B)</f>
-        <v>0.134088762983947</v>
+        <v>0.111012695600827</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -4073,7 +6196,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>198</v>
+        <v>284</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -4084,7 +6207,7 @@
       </c>
       <c r="E68">
         <f t="shared" ref="E68:E102" si="11">E67+B68</f>
-        <v>2754</v>
+        <v>3292</v>
       </c>
       <c r="F68">
         <f t="shared" si="9"/>
@@ -4092,7 +6215,7 @@
       </c>
       <c r="G68">
         <f t="shared" si="10"/>
-        <v>0.144475920679887</v>
+        <v>0.121493947446118</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -4100,7 +6223,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -4111,7 +6234,7 @@
       </c>
       <c r="E69">
         <f t="shared" si="11"/>
-        <v>3000</v>
+        <v>3577</v>
       </c>
       <c r="F69">
         <f t="shared" si="9"/>
@@ -4119,7 +6242,7 @@
       </c>
       <c r="G69">
         <f t="shared" si="10"/>
-        <v>0.157381177211206</v>
+        <v>0.132012105107765</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -4127,7 +6250,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4138,7 +6261,7 @@
       </c>
       <c r="E70">
         <f t="shared" si="11"/>
-        <v>3348</v>
+        <v>3891</v>
       </c>
       <c r="F70">
         <f t="shared" si="9"/>
@@ -4146,7 +6269,7 @@
       </c>
       <c r="G70">
         <f t="shared" si="10"/>
-        <v>0.175637393767705</v>
+        <v>0.143600531443756</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -4154,7 +6277,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -4165,7 +6288,7 @@
       </c>
       <c r="E71">
         <f t="shared" si="11"/>
-        <v>3648</v>
+        <v>4211</v>
       </c>
       <c r="F71">
         <f t="shared" si="9"/>
@@ -4173,7 +6296,7 @@
       </c>
       <c r="G71">
         <f t="shared" si="10"/>
-        <v>0.191375511488826</v>
+        <v>0.155410392677886</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -4181,7 +6304,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>294</v>
+        <v>387</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -4192,7 +6315,7 @@
       </c>
       <c r="E72">
         <f t="shared" si="11"/>
-        <v>3942</v>
+        <v>4598</v>
       </c>
       <c r="F72">
         <f t="shared" si="9"/>
@@ -4200,7 +6323,7 @@
       </c>
       <c r="G72">
         <f t="shared" si="10"/>
-        <v>0.206798866855524</v>
+        <v>0.169692943607913</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -4208,7 +6331,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>318</v>
+        <v>362</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -4219,7 +6342,7 @@
       </c>
       <c r="E73">
         <f t="shared" si="11"/>
-        <v>4260</v>
+        <v>4960</v>
       </c>
       <c r="F73">
         <f t="shared" si="9"/>
@@ -4227,7 +6350,7 @@
       </c>
       <c r="G73">
         <f t="shared" si="10"/>
-        <v>0.223481271639912</v>
+        <v>0.183052849129023</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -4235,7 +6358,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>384</v>
+        <v>464</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -4246,7 +6369,7 @@
       </c>
       <c r="E74">
         <f t="shared" si="11"/>
-        <v>4644</v>
+        <v>5424</v>
       </c>
       <c r="F74">
         <f t="shared" si="9"/>
@@ -4254,7 +6377,7 @@
       </c>
       <c r="G74">
         <f t="shared" si="10"/>
-        <v>0.243626062322946</v>
+        <v>0.200177147918512</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -4262,7 +6385,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>450</v>
+        <v>526</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -4273,7 +6396,7 @@
       </c>
       <c r="E75">
         <f t="shared" si="11"/>
-        <v>5094</v>
+        <v>5950</v>
       </c>
       <c r="F75">
         <f t="shared" si="9"/>
@@ -4281,7 +6404,7 @@
       </c>
       <c r="G75">
         <f t="shared" si="10"/>
-        <v>0.267233238904627</v>
+        <v>0.219589607322114</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -4289,7 +6412,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>402</v>
+        <v>558</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -4300,7 +6423,7 @@
       </c>
       <c r="E76">
         <f t="shared" si="11"/>
-        <v>5496</v>
+        <v>6508</v>
       </c>
       <c r="F76">
         <f t="shared" si="9"/>
@@ -4308,7 +6431,7 @@
       </c>
       <c r="G76">
         <f t="shared" si="10"/>
-        <v>0.288322316650929</v>
+        <v>0.240183052849129</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -4316,7 +6439,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>474</v>
+        <v>572</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -4327,7 +6450,7 @@
       </c>
       <c r="E77">
         <f t="shared" si="11"/>
-        <v>5970</v>
+        <v>7080</v>
       </c>
       <c r="F77">
         <f t="shared" si="9"/>
@@ -4335,7 +6458,7 @@
       </c>
       <c r="G77">
         <f t="shared" si="10"/>
-        <v>0.313188542650299</v>
+        <v>0.261293179805137</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -4343,7 +6466,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>546</v>
+        <v>650</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -4354,7 +6477,7 @@
       </c>
       <c r="E78">
         <f t="shared" si="11"/>
-        <v>6516</v>
+        <v>7730</v>
       </c>
       <c r="F78">
         <f t="shared" si="9"/>
@@ -4362,7 +6485,7 @@
       </c>
       <c r="G78">
         <f t="shared" si="10"/>
-        <v>0.341831916902738</v>
+        <v>0.285281960436965</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -4370,7 +6493,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>417</v>
+        <v>672</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -4381,7 +6504,7 @@
       </c>
       <c r="E79">
         <f t="shared" si="11"/>
-        <v>6933</v>
+        <v>8402</v>
       </c>
       <c r="F79">
         <f t="shared" si="9"/>
@@ -4389,7 +6512,7 @@
       </c>
       <c r="G79">
         <f t="shared" si="10"/>
-        <v>0.363707900535096</v>
+        <v>0.310082669028639</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -4397,7 +6520,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>579</v>
+        <v>739</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -4408,7 +6531,7 @@
       </c>
       <c r="E80">
         <f t="shared" si="11"/>
-        <v>7512</v>
+        <v>9141</v>
       </c>
       <c r="F80">
         <f t="shared" si="9"/>
@@ -4416,7 +6539,7 @@
       </c>
       <c r="G80">
         <f t="shared" si="10"/>
-        <v>0.394082467736859</v>
+        <v>0.337356067316209</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -4424,7 +6547,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>582</v>
+        <v>847</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -4435,7 +6558,7 @@
       </c>
       <c r="E81">
         <f t="shared" si="11"/>
-        <v>8094</v>
+        <v>9988</v>
       </c>
       <c r="F81">
         <f t="shared" si="9"/>
@@ -4443,7 +6566,7 @@
       </c>
       <c r="G81">
         <f t="shared" si="10"/>
-        <v>0.424614416115833</v>
+        <v>0.368615293770298</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -4451,7 +6574,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>534</v>
+        <v>878</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -4462,7 +6585,7 @@
       </c>
       <c r="E82">
         <f t="shared" si="11"/>
-        <v>8628</v>
+        <v>10866</v>
       </c>
       <c r="F82">
         <f t="shared" si="9"/>
@@ -4470,7 +6593,7 @@
       </c>
       <c r="G82">
         <f t="shared" si="10"/>
-        <v>0.452628265659427</v>
+        <v>0.401018600531444</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -4478,7 +6601,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>666</v>
+        <v>939</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -4489,7 +6612,7 @@
       </c>
       <c r="E83">
         <f t="shared" si="11"/>
-        <v>9294</v>
+        <v>11805</v>
       </c>
       <c r="F83">
         <f t="shared" si="9"/>
@@ -4497,7 +6620,7 @@
       </c>
       <c r="G83">
         <f t="shared" si="10"/>
-        <v>0.487566887000315</v>
+        <v>0.435673162090345</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -4505,7 +6628,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>636</v>
+        <v>995</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4516,7 +6639,7 @@
       </c>
       <c r="E84">
         <f t="shared" si="11"/>
-        <v>9930</v>
+        <v>12800</v>
       </c>
       <c r="F84">
         <f t="shared" si="9"/>
@@ -4524,7 +6647,7 @@
       </c>
       <c r="G84">
         <f t="shared" si="10"/>
-        <v>0.52093169656909</v>
+        <v>0.47239444936522</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4532,7 +6655,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>876</v>
+        <v>1048</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -4543,7 +6666,7 @@
       </c>
       <c r="E85">
         <f t="shared" si="11"/>
-        <v>10806</v>
+        <v>13848</v>
       </c>
       <c r="F85">
         <f t="shared" si="9"/>
@@ -4551,7 +6674,7 @@
       </c>
       <c r="G85">
         <f t="shared" si="10"/>
-        <v>0.566887000314762</v>
+        <v>0.511071744906997</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4559,7 +6682,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>786</v>
+        <v>1094</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -4570,7 +6693,7 @@
       </c>
       <c r="E86">
         <f t="shared" si="11"/>
-        <v>11592</v>
+        <v>14942</v>
       </c>
       <c r="F86">
         <f t="shared" si="9"/>
@@ -4578,7 +6701,7 @@
       </c>
       <c r="G86">
         <f t="shared" si="10"/>
-        <v>0.608120868744098</v>
+        <v>0.551446708001181</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4586,7 +6709,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>756</v>
+        <v>1164</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -4597,7 +6720,7 @@
       </c>
       <c r="E87">
         <f t="shared" si="11"/>
-        <v>12348</v>
+        <v>16106</v>
       </c>
       <c r="F87">
         <f t="shared" si="9"/>
@@ -4605,7 +6728,7 @@
       </c>
       <c r="G87">
         <f t="shared" si="10"/>
-        <v>0.647780925401322</v>
+        <v>0.594405078240331</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4613,7 +6736,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>672</v>
+        <v>1154</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -4624,7 +6747,7 @@
       </c>
       <c r="E88">
         <f t="shared" si="11"/>
-        <v>13020</v>
+        <v>17260</v>
       </c>
       <c r="F88">
         <f t="shared" si="9"/>
@@ -4632,7 +6755,7 @@
       </c>
       <c r="G88">
         <f t="shared" si="10"/>
-        <v>0.683034309096632</v>
+        <v>0.636994390315914</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4640,7 +6763,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>684</v>
+        <v>1228</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -4651,7 +6774,7 @@
       </c>
       <c r="E89">
         <f t="shared" si="11"/>
-        <v>13704</v>
+        <v>18488</v>
       </c>
       <c r="F89">
         <f t="shared" si="9"/>
@@ -4659,7 +6782,7 @@
       </c>
       <c r="G89">
         <f t="shared" si="10"/>
-        <v>0.718917217500787</v>
+        <v>0.68231473280189</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4667,7 +6790,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>744</v>
+        <v>1178</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -4678,7 +6801,7 @@
       </c>
       <c r="E90">
         <f t="shared" si="11"/>
-        <v>14448</v>
+        <v>19666</v>
       </c>
       <c r="F90">
         <f t="shared" si="9"/>
@@ -4686,7 +6809,7 @@
       </c>
       <c r="G90">
         <f t="shared" si="10"/>
-        <v>0.757947749449166</v>
+        <v>0.725789784470033</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4694,7 +6817,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>564</v>
+        <v>1200</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -4705,7 +6828,7 @@
       </c>
       <c r="E91">
         <f t="shared" si="11"/>
-        <v>15012</v>
+        <v>20866</v>
       </c>
       <c r="F91">
         <f t="shared" si="9"/>
@@ -4713,7 +6836,7 @@
       </c>
       <c r="G91">
         <f t="shared" si="10"/>
-        <v>0.787535410764873</v>
+        <v>0.770076764098022</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4721,7 +6844,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>642</v>
+        <v>1190</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -4732,7 +6855,7 @@
       </c>
       <c r="E92">
         <f t="shared" si="11"/>
-        <v>15654</v>
+        <v>22056</v>
       </c>
       <c r="F92">
         <f t="shared" si="9"/>
@@ -4740,7 +6863,7 @@
       </c>
       <c r="G92">
         <f t="shared" si="10"/>
-        <v>0.82121498268807</v>
+        <v>0.813994685562445</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4748,7 +6871,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>576</v>
+        <v>1126</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -4759,7 +6882,7 @@
       </c>
       <c r="E93">
         <f t="shared" si="11"/>
-        <v>16230</v>
+        <v>23182</v>
       </c>
       <c r="F93">
         <f t="shared" si="9"/>
@@ -4767,7 +6890,7 @@
       </c>
       <c r="G93">
         <f t="shared" si="10"/>
-        <v>0.851432168712622</v>
+        <v>0.855550634780041</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4775,7 +6898,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>636</v>
+        <v>984</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -4786,7 +6909,7 @@
       </c>
       <c r="E94">
         <f t="shared" si="11"/>
-        <v>16866</v>
+        <v>24166</v>
       </c>
       <c r="F94">
         <f t="shared" si="9"/>
@@ -4794,7 +6917,7 @@
       </c>
       <c r="G94">
         <f t="shared" si="10"/>
-        <v>0.884796978281398</v>
+        <v>0.891865958074993</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4802,7 +6925,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>462</v>
+        <v>828</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -4813,7 +6936,7 @@
       </c>
       <c r="E95">
         <f t="shared" si="11"/>
-        <v>17328</v>
+        <v>24994</v>
       </c>
       <c r="F95">
         <f t="shared" si="9"/>
@@ -4821,7 +6944,7 @@
       </c>
       <c r="G95">
         <f t="shared" si="10"/>
-        <v>0.909033679571923</v>
+        <v>0.922423974018305</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4829,7 +6952,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>378</v>
+        <v>706</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -4840,7 +6963,7 @@
       </c>
       <c r="E96">
         <f t="shared" si="11"/>
-        <v>17706</v>
+        <v>25700</v>
       </c>
       <c r="F96">
         <f t="shared" si="9"/>
@@ -4848,7 +6971,7 @@
       </c>
       <c r="G96">
         <f t="shared" si="10"/>
-        <v>0.928863707900535</v>
+        <v>0.948479480366106</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4856,7 +6979,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>348</v>
+        <v>520</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -4867,7 +6990,7 @@
       </c>
       <c r="E97">
         <f t="shared" si="11"/>
-        <v>18054</v>
+        <v>26220</v>
       </c>
       <c r="F97">
         <f t="shared" si="9"/>
@@ -4875,7 +6998,7 @@
       </c>
       <c r="G97">
         <f t="shared" si="10"/>
-        <v>0.947119924457035</v>
+        <v>0.967670504871568</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4883,7 +7006,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -4894,7 +7017,7 @@
       </c>
       <c r="E98">
         <f t="shared" si="11"/>
-        <v>18354</v>
+        <v>26620</v>
       </c>
       <c r="F98">
         <f t="shared" si="9"/>
@@ -4902,7 +7025,7 @@
       </c>
       <c r="G98">
         <f t="shared" si="10"/>
-        <v>0.962858042178156</v>
+        <v>0.982432831414231</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4910,7 +7033,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -4921,7 +7044,7 @@
       </c>
       <c r="E99">
         <f t="shared" si="11"/>
-        <v>18594</v>
+        <v>26878</v>
       </c>
       <c r="F99">
         <f>D99/SUM(C:C)</f>
@@ -4929,7 +7052,7 @@
       </c>
       <c r="G99">
         <f>E99/SUM(B:B)</f>
-        <v>0.975448536355052</v>
+        <v>0.991954532034249</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4937,7 +7060,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -4948,7 +7071,7 @@
       </c>
       <c r="E100">
         <f t="shared" si="11"/>
-        <v>18792</v>
+        <v>27014</v>
       </c>
       <c r="F100">
         <f>D100/SUM(C:C)</f>
@@ -4956,7 +7079,7 @@
       </c>
       <c r="G100">
         <f>E100/SUM(B:B)</f>
-        <v>0.985835694050991</v>
+        <v>0.996973723058754</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4964,7 +7087,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -4975,7 +7098,7 @@
       </c>
       <c r="E101">
         <f t="shared" si="11"/>
-        <v>18966</v>
+        <v>27090</v>
       </c>
       <c r="F101">
         <f>D101/SUM(C:C)</f>
@@ -4983,7 +7106,7 @@
       </c>
       <c r="G101">
         <f>E101/SUM(B:B)</f>
-        <v>0.994963802329241</v>
+        <v>0.99977856510186</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4991,7 +7114,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -5002,7 +7125,7 @@
       </c>
       <c r="E102">
         <f t="shared" si="11"/>
-        <v>19062</v>
+        <v>27096</v>
       </c>
       <c r="F102">
         <f>D102/SUM(C:C)</f>

--- a/include/farfrr/farfrr.xlsx
+++ b/include/farfrr/farfrr.xlsx
@@ -57,10 +57,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -80,7 +80,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,11 +108,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -124,7 +139,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,78 +207,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,7 +224,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,25 +248,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,31 +278,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,7 +326,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,61 +362,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,13 +386,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,6 +415,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -436,8 +480,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,21 +501,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -486,35 +515,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -523,10 +523,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -535,34 +535,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,67 +571,85 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,28 +658,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2853,8 +2853,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.807734917917212"/>
-          <c:y val="0.858761701428806"/>
+          <c:x val="0.783887541128659"/>
+          <c:y val="0.856322280384734"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4361,8 +4361,8 @@
   <sheetPr/>
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="S53" sqref="S53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
